--- a/Documents/QuestionAnswers.xlsx
+++ b/Documents/QuestionAnswers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\light\OneDrive\Documents\GitHub\tuyensinh_dhtbd\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\light\OneDrive\Documents\GitHub\PhanMemXetTuyen_TBDUni\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB771EC-EA2F-4CC4-AAB5-A7EB12440F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84762AD3-30DB-4EAE-B8BC-8C42D5DAFBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Câu hỏi project Hệ thống tuyển sinh</t>
   </si>
@@ -73,6 +74,9 @@
   </si>
   <si>
     <t>Chưa</t>
+  </si>
+  <si>
+    <t>Nếu như bỏ chức năng đăng ký/đăng nhập thì học sinh sẽ không tùy chỉnh hồ sơ được --&gt; Nhân viên là người tùy chỉnh</t>
   </si>
 </sst>
 </file>
@@ -143,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -160,6 +164,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,7 +451,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,9 +558,11 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
